--- a/data/trans_bre/P34_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-11,29%</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-16,24%</t>
+          <t>-25,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
+          <t>-19,36%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-6,8%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 4,24</t>
+          <t>-13,8; 3,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 2,61</t>
+          <t>-11,91; 5,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 3,98</t>
+          <t>-9,07; 6,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 25,91</t>
+          <t>-7,94; 8,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,85; 15,66</t>
+          <t>-51,99; 23,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,63; 24,41</t>
+          <t>-48,38; 36,81</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-40,2; 49,34</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-43,22; 86,69</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,98</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,78</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-25,23%</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-26,24%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-30,04%</t>
+          <t>-10,3%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-29,33%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-26,05%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 1,9</t>
+          <t>-11,8; 6,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 1,6</t>
+          <t>-12,1; 6,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 0,83</t>
+          <t>-18,81; 2,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,73; 10,42</t>
+          <t>-16,22; 3,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 8,59</t>
+          <t>-45,0; 37,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 4,85</t>
+          <t>-45,72; 40,85</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-58,18; 17,03</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-56,72; 25,22</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>19,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,05</t>
+          <t>21,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,57</t>
+          <t>24,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>52,45%</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>70,82%</t>
+          <t>154,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>81,29%</t>
+          <t>176,63%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>221,22%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-22,03%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 25,93</t>
+          <t>-2,99; 39,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 28,23</t>
+          <t>-4,84; 40,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 26,88</t>
+          <t>0,28; 43,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 283,2</t>
+          <t>-50,53; 20,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,27; 302,15</t>
+          <t>-30,57; 759,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 391,21</t>
+          <t>-31,36; 1116,31</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-18,1; 1284,23</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-81,06; 131,96</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,13%</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,4%</t>
+          <t>-8,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,96%</t>
+          <t>-3,47%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-5,22%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-16,72%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 2,34</t>
+          <t>-8,15; 4,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 1,78</t>
+          <t>-7,12; 5,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 2,56</t>
+          <t>-7,74; 4,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 12,56</t>
+          <t>-11,48; 4,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 8,97</t>
+          <t>-34,18; 23,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 12,68</t>
+          <t>-31,1; 32,36</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-31,4; 31,57</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-44,07; 26,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P34_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,37</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,75</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,23</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-25,46%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-19,36%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-6,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,66%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-6.425483379155178</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.513572670609504</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.838078594499552</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1091129635242549</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.3010229278376791</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2667360358141973</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1491356347522406</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.007777894949434463</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,8; 3,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,91; 5,02</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,07; 6,65</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,94; 8,29</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-51,99; 23,72</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-48,38; 36,81</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-40,2; 49,34</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-43,22; 86,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.17322130439055</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.20292476556846</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.8274130948844</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-8.08702718972955</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.5612953335175632</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5318196725154059</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4584495697014367</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4392372627406709</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.10636300624584</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.112636692765823</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.316874445024228</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8.671921795494967</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.1427104417344219</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2504562256056283</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4082671190322341</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.9154222183969999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,96</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-7,33</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-5,63</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-13,61%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-10,3%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-29,33%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-26,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,8; 6,02</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,1; 6,72</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-18,81; 2,99</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-16,22; 3,28</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-45,0; 37,16</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-45,72; 40,85</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-58,18; 17,03</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-56,72; 25,22</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.174339491015887</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.706163558926637</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-8.692846740466202</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-5.99325937415125</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.146995272528068</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1611333220931388</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.3251713291455862</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2738139895507352</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>19,88</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>21,36</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>24,92</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-8,69</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>154,15%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>176,63%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>221,22%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-22,03%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-13.45809046158492</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.68410144027921</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-21.32407680702509</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-16.37303145259901</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4769195027233247</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4987887000212329</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.596108319421769</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.583638124750816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,99; 39,02</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,84; 40,32</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 43,71</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-50,53; 20,39</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-30,57; 759,11</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-31,36; 1116,31</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-18,1; 1284,23</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-81,06; 131,96</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.752762210578441</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.338368893141818</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.691834000340304</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.35584254964888</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3677188896841278</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.302998015717484</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1284943648768721</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.2004308578758664</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,32</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-8,68%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-3,47%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-5,22%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-16,72%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>21.53746464963829</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>23.3151372775399</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>25.51032848055518</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-8.686280748584235</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.748019698453232</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>2.226482194900215</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>2.51528494360219</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.221901791958191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,15; 4,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,12; 5,23</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,74; 4,99</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-11,48; 4,24</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-34,18; 23,85</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-31,1; 32,36</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-31,4; 31,57</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-44,07; 26,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.3862102306174721</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2192038172572271</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.901959733362828</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-52.37221562899019</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.204843046765829</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2410847969310816</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.08420292653746975</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8033829036443471</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>41.16648991642518</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>42.35033428673105</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>44.45736073322377</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>20.38033613370086</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>8.838151209699916</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>12.06637341122423</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>15.47806026590623</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.434688199053758</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-2.301106687577661</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.915491973477532</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.359819786694556</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.546988303733334</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.112108064318537</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.09292909257681811</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1106344632406068</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1765892681847551</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.571466637135945</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.547374361617356</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-9.405398135228332</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-11.79769647766933</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3597181754531283</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3513371479315441</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3586559774394741</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4524710611476513</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.401325480735826</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.208882938792116</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.022672101541691</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.797663503560579</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.193933862982451</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2499089833901969</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2436401209033902</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2497665502562462</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
